--- a/public/reports/3132 - Чеп за хендикеп - Зрењанин/2025/09/postpaid/complete_report_Cep_za_hendikep_-_Zrenjanin_postpaid_09_2025.xlsx
+++ b/public/reports/3132 - Чеп за хендикеп - Зрењанин/2025/09/postpaid/complete_report_Cep_za_hendikep_-_Zrenjanin_postpaid_09_2025.xlsx
@@ -865,7 +865,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>9</v>

--- a/public/reports/3132 - Чеп за хендикеп - Зрењанин/2025/09/postpaid/complete_report_Cep_za_hendikep_-_Zrenjanin_postpaid_09_2025.xlsx
+++ b/public/reports/3132 - Чеп за хендикеп - Зрењанин/2025/09/postpaid/complete_report_Cep_za_hendikep_-_Zrenjanin_postpaid_09_2025.xlsx
@@ -79,7 +79,7 @@
     <t>Сврха уплате</t>
   </si>
   <si>
-    <t>Обезбеђивање средстава за активности хуманитарне организације усмерене на пружање помоћи особама са инвалидитетом на територији Србије.</t>
+    <t>dsdasdasdasdasdasdasdsada</t>
   </si>
   <si>
     <t>Напомена:</t>
@@ -865,7 +865,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>9</v>

--- a/public/reports/3132 - Чеп за хендикеп - Зрењанин/2025/09/postpaid/complete_report_Cep_za_hendikep_-_Zrenjanin_postpaid_09_2025.xlsx
+++ b/public/reports/3132 - Чеп за хендикеп - Зрењанин/2025/09/postpaid/complete_report_Cep_za_hendikep_-_Zrenjanin_postpaid_09_2025.xlsx
@@ -79,7 +79,7 @@
     <t>Сврха уплате</t>
   </si>
   <si>
-    <t>dsdasdasdasdasdasdasdsada</t>
+    <t>Обезбеђивање средстава за активности хуманитарне организације усмерене на пружање помоћи особама са инвалидитетом на територији Србије.</t>
   </si>
   <si>
     <t>Напомена:</t>
